--- a/dtpu_configurations/only_integer32/80mhz/mxu_7x7/power.xlsx
+++ b/dtpu_configurations/only_integer32/80mhz/mxu_7x7/power.xlsx
@@ -47,7 +47,7 @@
     <t>Total Power</t>
   </si>
   <si>
-    <t>impl_1, impl_1_route_report_power_0</t>
+    <t>retiming, retiming_route_report_power_0</t>
   </si>
 </sst>
 </file>
@@ -122,12 +122,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.71875" customWidth="true"/>
+    <col min="1" max="1" width="45.46875" customWidth="true"/>
     <col min="2" max="2" width="9.0625" customWidth="true"/>
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="8.75" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.03265812620520592</v>
+        <v>0.047236934304237366</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.014285740442574024</v>
+        <v>0.01802004873752594</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.01082578394562006</v>
+        <v>0.013402742333710194</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0099388612434268</v>
+        <v>0.010327234864234924</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.140501601388678E-4</v>
+        <v>0.003218581900000572</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.003436380997300148</v>
@@ -199,10 +199,10 @@
         <v>1.2604483366012573</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.1271258294582367</v>
+        <v>0.12783977389335632</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4604356288909912</v>
+        <v>1.4854326248168945</v>
       </c>
     </row>
   </sheetData>
